--- a/DataAnalysisSystem/wwwroot/resources/Datasets/iris.xlsx
+++ b/DataAnalysisSystem/wwwroot/resources/Datasets/iris.xlsx
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
